--- a/output/fit_clients/fit_round_298.xlsx
+++ b/output/fit_clients/fit_round_298.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1806775398.905988</v>
+        <v>1785315718.038262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09078057395882612</v>
+        <v>0.08705973648764639</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02932799461355704</v>
+        <v>0.04381138995898811</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>903387669.0866662</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2205926330.37192</v>
+        <v>2122742002.904635</v>
       </c>
       <c r="F3" t="n">
-        <v>0.177071361830882</v>
+        <v>0.1564167745696253</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04915542473125813</v>
+        <v>0.0306722491745047</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1102963237.136793</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4259152254.491805</v>
+        <v>4317387538.113158</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1025847943338118</v>
+        <v>0.1358681525676452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02395882747426745</v>
+        <v>0.03108106147247442</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>107</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2129576159.792406</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3100661020.191554</v>
+        <v>3579165692.8493</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09762860130439474</v>
+        <v>0.09838575773356345</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03986850550951911</v>
+        <v>0.04763712470822822</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1550330573.310314</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2125266153.77246</v>
+        <v>1861020861.22259</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1215062356851144</v>
+        <v>0.1427055989370581</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04582279585485007</v>
+        <v>0.04150508166112032</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>56</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1062633092.925253</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2834229482.550643</v>
+        <v>2429519341.944317</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07932702956966536</v>
+        <v>0.07574580504286549</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04649504929445746</v>
+        <v>0.04435648676784477</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>93</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1417114722.112974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2694940516.972444</v>
+        <v>2766598359.920075</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1411067400424574</v>
+        <v>0.1532770907574251</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02126881314262793</v>
+        <v>0.0271429800771824</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1347470284.813828</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1429866581.851782</v>
+        <v>1810846780.586152</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1250840958266674</v>
+        <v>0.1778777334644791</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03469061647116155</v>
+        <v>0.02412525846615978</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>714933396.6421235</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5584942081.95866</v>
+        <v>5743076814.29073</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17233089772242</v>
+        <v>0.1861617860344831</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03774850054504419</v>
+        <v>0.05192345931100151</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>125</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2792471185.585786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2748625117.091704</v>
+        <v>2664996175.447139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1424485171799306</v>
+        <v>0.1259549921022305</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04539895901247112</v>
+        <v>0.03440108011081557</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>123</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1374312483.932801</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3227331639.31612</v>
+        <v>2493399672.585806</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1717926233698794</v>
+        <v>0.172481238377865</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04250731086799536</v>
+        <v>0.03504384086873476</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>101</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1613665858.498434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3606291080.478246</v>
+        <v>4392845671.807225</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0991655237369989</v>
+        <v>0.06512393809342608</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02851091987606363</v>
+        <v>0.02228893558535964</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>100</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1803145615.166293</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3705755778.509134</v>
+        <v>3658951269.576483</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1212528537595507</v>
+        <v>0.1288989395918446</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03780553694409708</v>
+        <v>0.03404085922710821</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>95</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1852877872.588711</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1196207056.262008</v>
+        <v>1374860842.033861</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07700211213404484</v>
+        <v>0.101537261392004</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03616298955596225</v>
+        <v>0.03367864678216439</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>598103544.761356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2063242443.975783</v>
+        <v>1952436356.028931</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07135150107514181</v>
+        <v>0.08777329038221926</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04953587606336966</v>
+        <v>0.03452763794414518</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>58</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1031621291.818943</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3888245977.393108</v>
+        <v>5191454767.681368</v>
       </c>
       <c r="F17" t="n">
-        <v>0.157906486161835</v>
+        <v>0.162728780413491</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04968360443714937</v>
+        <v>0.05154849178139732</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>87</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1944123028.81255</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3291781634.092505</v>
+        <v>3680637594.577675</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1798673246692893</v>
+        <v>0.1254900672352296</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02493886157786017</v>
+        <v>0.02385683475636483</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>97</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1645890826.183118</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1329036954.788038</v>
+        <v>1304935900.564102</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1518959703358288</v>
+        <v>0.1702348708638709</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01843942776370165</v>
+        <v>0.02471796715351398</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>664518586.721234</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1910439492.01205</v>
+        <v>2452085910.308936</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1122524004162076</v>
+        <v>0.1478133078227566</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03185423564870553</v>
+        <v>0.03037978038591101</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>955219781.9023414</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2153415895.524252</v>
+        <v>2651420955.341897</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1019344820599272</v>
+        <v>0.09799370556278322</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02954291659530217</v>
+        <v>0.03368681128160355</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1076707969.014518</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3319755601.787994</v>
+        <v>3380894227.166316</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1314895015480434</v>
+        <v>0.1011480716063356</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05688209333753352</v>
+        <v>0.03789059904975415</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1659877843.279433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1237124477.553604</v>
+        <v>1325520379.84294</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1136899316964593</v>
+        <v>0.1581942683261257</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0421990324150271</v>
+        <v>0.04340957869887222</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>618562269.0067983</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3432093464.771427</v>
+        <v>4000910494.701607</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1039154969034316</v>
+        <v>0.1451066930187351</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02773732747636232</v>
+        <v>0.03744591010716482</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>87</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1716046738.571639</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1105955085.430438</v>
+        <v>1264561786.868105</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07999833671688295</v>
+        <v>0.1184279561289109</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0307477499983558</v>
+        <v>0.02732977975436421</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>552977582.328228</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1042514897.222753</v>
+        <v>965516094.7624595</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1228618642798915</v>
+        <v>0.09126525949282745</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03567958686135354</v>
+        <v>0.03387867995183746</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>521257431.0728732</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2995783839.064979</v>
+        <v>4407022413.671</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1390492862114382</v>
+        <v>0.1009674219953477</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01916264034664732</v>
+        <v>0.02480510306116742</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1497891979.550642</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2602591939.854598</v>
+        <v>2770674395.818733</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1145566252370905</v>
+        <v>0.1497090251198532</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04474363289368988</v>
+        <v>0.04845358084410706</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1301295946.656633</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4510812240.763149</v>
+        <v>4193246994.695236</v>
       </c>
       <c r="F29" t="n">
-        <v>0.12763678291751</v>
+        <v>0.1101891974079399</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0392726382883875</v>
+        <v>0.02937767776421513</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>132</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2255406101.820449</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2348892044.695236</v>
+        <v>1874170306.951284</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1270017180608001</v>
+        <v>0.1058777658451414</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03843833132516109</v>
+        <v>0.02466371097672278</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1174446099.54228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1174727942.063887</v>
+        <v>914443044.7441913</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08368175914488028</v>
+        <v>0.1093320097216985</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03663009025995511</v>
+        <v>0.03576645791119809</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>587363928.4520631</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1320160272.585116</v>
+        <v>1795304026.618865</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1184793832530869</v>
+        <v>0.09482522997676449</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02696204241925513</v>
+        <v>0.03277621515798469</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>660080167.4042956</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2270785220.059746</v>
+        <v>2011376908.682584</v>
       </c>
       <c r="F33" t="n">
-        <v>0.175908152168691</v>
+        <v>0.1874937863458253</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05359301735135194</v>
+        <v>0.05276991293662206</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1135392667.750871</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1398549501.101423</v>
+        <v>1323417949.570215</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07641036003020503</v>
+        <v>0.1209276999650733</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02164759936751798</v>
+        <v>0.02337297473644551</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>699274723.01651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1226492035.192031</v>
+        <v>941908634.9250028</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0736995314345681</v>
+        <v>0.08769488650875609</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03638522858224019</v>
+        <v>0.04518852899485083</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>613245986.5045408</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2327306456.610519</v>
+        <v>2729250879.389655</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1649184863366163</v>
+        <v>0.1167804412781504</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0240462620569077</v>
+        <v>0.02259010181337461</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>75</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1163653264.129315</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2117190498.227274</v>
+        <v>2928911723.08477</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08740942901652819</v>
+        <v>0.1056416066831231</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04039577138007951</v>
+        <v>0.02814089374726278</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>78</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1058595292.523978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1826778086.355799</v>
+        <v>1850794818.676544</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1038256354657592</v>
+        <v>0.09377360135998507</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03653202939852027</v>
+        <v>0.02686734875942844</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>913389046.2732282</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1512187937.12112</v>
+        <v>1824670164.611382</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1549529821659073</v>
+        <v>0.1607919819249347</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02335029917953739</v>
+        <v>0.02359767923146849</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>756094037.1772695</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1181263474.302267</v>
+        <v>1818571821.280972</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1416051795162699</v>
+        <v>0.1469830590715778</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04830867892462145</v>
+        <v>0.04272229564002854</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>590631783.143078</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1957804074.081974</v>
+        <v>2876437518.430094</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1436991819828417</v>
+        <v>0.1462405009646242</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04560533114363052</v>
+        <v>0.03489977847082185</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>74</v>
-      </c>
-      <c r="J41" t="n">
-        <v>978902115.3778918</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4258080490.513651</v>
+        <v>4071123308.150652</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1246908139507216</v>
+        <v>0.08384593793379783</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03988892328047992</v>
+        <v>0.03091945279378133</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2129040292.318319</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2305828107.649063</v>
+        <v>2792311522.415148</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1263586831403651</v>
+        <v>0.1295458393550752</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0187025176364527</v>
+        <v>0.02556746522220306</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>110</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1152914122.013894</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1631264306.944356</v>
+        <v>2065193129.789653</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06688675688139319</v>
+        <v>0.06599769094689201</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02603113696286681</v>
+        <v>0.03037976527525873</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>815632186.2412592</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2365242782.8053</v>
+        <v>1709405495.129657</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1425483741483846</v>
+        <v>0.1552915233910321</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04806048711874621</v>
+        <v>0.04783774868027361</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1182621419.070307</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5646692254.241389</v>
+        <v>5015092158.096976</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1340848935323307</v>
+        <v>0.134005265184841</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04803038943308789</v>
+        <v>0.04657572706681694</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>106</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2823346190.922316</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4452078882.382022</v>
+        <v>3198963972.450351</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1266273854846589</v>
+        <v>0.1636424143302754</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0400621038991559</v>
+        <v>0.04381882807137386</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>80</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2226039465.920611</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4350873282.029103</v>
+        <v>4387484317.086096</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08688057993712982</v>
+        <v>0.08577755607136285</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03359555263470425</v>
+        <v>0.03251186645680193</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2175436654.970512</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1672165414.557622</v>
+        <v>1782461678.607767</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1237424035176673</v>
+        <v>0.134310786724467</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03316060725469321</v>
+        <v>0.03413775347088265</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>836082712.5284799</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2595543606.521057</v>
+        <v>3787542275.566606</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1334574807382696</v>
+        <v>0.1340522738559069</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04763784655460026</v>
+        <v>0.04255834982447806</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>101</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1297771891.855287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1108711832.39698</v>
+        <v>1490513277.225052</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1193620199000557</v>
+        <v>0.1501268452001143</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04143017750787993</v>
+        <v>0.04031742423039728</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>554355982.554535</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3437562970.944434</v>
+        <v>4983365187.319416</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1320551726060115</v>
+        <v>0.1357588536374249</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05069314914138517</v>
+        <v>0.04741981196907645</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>123</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1718781575.054048</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2824467498.39762</v>
+        <v>3494067094.546219</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1373579409346739</v>
+        <v>0.1864141422226145</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02651838657104991</v>
+        <v>0.03000836262277094</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>86</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1412233793.755376</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4591017341.463641</v>
+        <v>4657755366.431468</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1127238224815298</v>
+        <v>0.1641157324647678</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04648298581887363</v>
+        <v>0.03822957174965578</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>97</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2295508781.19845</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3102870650.469178</v>
+        <v>4790524193.114096</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1876274797107853</v>
+        <v>0.1958662299592982</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02138826461007557</v>
+        <v>0.0223269014934327</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>85</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1551435260.533525</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1312270411.448015</v>
+        <v>1825588764.182401</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1058738113914418</v>
+        <v>0.1586459427956931</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05679591580584643</v>
+        <v>0.0504664144277184</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>656135275.8190544</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3609579850.544636</v>
+        <v>4466129377.642482</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1671834782692099</v>
+        <v>0.1815189416544325</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0222965614976879</v>
+        <v>0.02109504104667644</v>
       </c>
       <c r="H57" t="b">
         <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>94</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1804789980.85862</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1786875151.756465</v>
+        <v>1555344594.908203</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1773202267860942</v>
+        <v>0.1564709188046644</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02985148611301785</v>
+        <v>0.03664178410473608</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>893437580.8273971</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5118099944.54732</v>
+        <v>5196188592.358803</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1149591342404385</v>
+        <v>0.08412035884774509</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03852749362920399</v>
+        <v>0.04620465969392975</v>
       </c>
       <c r="H59" t="b">
         <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2559049894.293218</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2490188770.926035</v>
+        <v>3166881136.764327</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1288106670177919</v>
+        <v>0.1790834219655991</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03130786391697912</v>
+        <v>0.03221664201163121</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>94</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1245094402.3362</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3122250521.268979</v>
+        <v>2946503079.441248</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1264111998782973</v>
+        <v>0.1382689075014945</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02734912628374223</v>
+        <v>0.02459465994343538</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>103</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1561125229.57812</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1612652122.541717</v>
+        <v>1881382423.529091</v>
       </c>
       <c r="F62" t="n">
-        <v>0.122693063133271</v>
+        <v>0.1279340616378393</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03734467048967188</v>
+        <v>0.0327253709403788</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>806326061.2490383</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5038417463.57151</v>
+        <v>3517191854.923544</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08172267236880733</v>
+        <v>0.1045071945988024</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03751245540733589</v>
+        <v>0.02957282961463509</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>84</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2519208747.854528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3602469139.613389</v>
+        <v>4975160722.145459</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1542682635178214</v>
+        <v>0.1895474760746984</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02913778707494376</v>
+        <v>0.02637087121794732</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>93</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1801234577.697494</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4325371449.789222</v>
+        <v>4677385889.236233</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1712303266627256</v>
+        <v>0.1250146540843667</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02752416556671598</v>
+        <v>0.02202455547243045</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>107</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2162685724.070844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4123632392.151399</v>
+        <v>4282951538.373451</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1523793475558597</v>
+        <v>0.1000157998723169</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04285177306399594</v>
+        <v>0.04950063756698329</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>87</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2061816176.265061</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3338010238.512627</v>
+        <v>3282447987.74235</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07107683349637264</v>
+        <v>0.06436709390662425</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04070531258485886</v>
+        <v>0.04818267339217093</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>96</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1669005108.927468</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5224884202.208313</v>
+        <v>4888643766.078553</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1369728007124262</v>
+        <v>0.1424484180452663</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03676311440266278</v>
+        <v>0.05126656757337932</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2612442171.131194</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1774510009.240084</v>
+        <v>2322446846.03147</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1619304575010206</v>
+        <v>0.1557195454913551</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04011087127960196</v>
+        <v>0.04955400617914515</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>887254980.3998305</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2266572232.329548</v>
+        <v>3409326520.660478</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07213932017766628</v>
+        <v>0.0947155818732404</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03669702241754316</v>
+        <v>0.04056925244033548</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>85</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1133286045.497726</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5160986919.432549</v>
+        <v>5603470417.991254</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1248408059985992</v>
+        <v>0.144302194408588</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03253877720073133</v>
+        <v>0.02508135943425838</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>108</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2580493577.426007</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1528528740.047468</v>
+        <v>1833563112.035322</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0865107715803769</v>
+        <v>0.07284390507390928</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05194400247105849</v>
+        <v>0.04078987071814802</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>764264392.4064996</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2399926534.083825</v>
+        <v>3449370286.788061</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08635720150159513</v>
+        <v>0.1031347207894447</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03995217869211184</v>
+        <v>0.03229020041534934</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>114</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1199963317.98604</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4015194248.239514</v>
+        <v>2680586049.535337</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1476511644008662</v>
+        <v>0.125555372338587</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02852826634148012</v>
+        <v>0.03101578754889649</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>101</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2007597101.774922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1934918235.882938</v>
+        <v>2290714620.070113</v>
       </c>
       <c r="F75" t="n">
-        <v>0.124009061988802</v>
+        <v>0.1321496436020751</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03786249684055302</v>
+        <v>0.02577816128171343</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>967459088.1977677</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3278275798.833242</v>
+        <v>5012965694.26309</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1201737149456269</v>
+        <v>0.1136031002182665</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02924752159008928</v>
+        <v>0.03381091028143567</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>71</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1639137853.889385</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1693854299.157304</v>
+        <v>2204702536.903739</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1552036460359644</v>
+        <v>0.1673880642508215</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02620115566253165</v>
+        <v>0.0286390558096473</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>846927165.9255111</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3571436089.604579</v>
+        <v>3488067229.75438</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1361987420608447</v>
+        <v>0.1316875422380704</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05511600127246392</v>
+        <v>0.04596999197076307</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>103</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1785718041.179224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1296494026.1222</v>
+        <v>1273907224.197587</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1087672905300001</v>
+        <v>0.1219698010355029</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02737673736293579</v>
+        <v>0.03461313923790288</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>648247011.6709232</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3834251370.739335</v>
+        <v>4301795239.864389</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09426684483882679</v>
+        <v>0.08076751335255949</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0315763716268638</v>
+        <v>0.03399209186405213</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>62</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1917125676.586789</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3326665764.708988</v>
+        <v>5029359467.046868</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1113686562856498</v>
+        <v>0.1039794493503854</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0309640742098931</v>
+        <v>0.02210827242324456</v>
       </c>
       <c r="H81" t="b">
         <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>66</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1663332820.578017</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3749003964.5361</v>
+        <v>5598683850.422307</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1917644451402521</v>
+        <v>0.1557721276093086</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02497957716113916</v>
+        <v>0.02480398501957219</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>105</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1874502036.030393</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2465126049.430765</v>
+        <v>1761721303.833995</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1297937135073128</v>
+        <v>0.1140367722584418</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04379688989573798</v>
+        <v>0.03313520720243669</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1232563067.950144</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1724101433.1462</v>
+        <v>2541788172.416807</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09486623573676595</v>
+        <v>0.09225527115590322</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05057852518830213</v>
+        <v>0.04667180066204037</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>862050761.9621639</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2982292285.792075</v>
+        <v>2939591498.266954</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1189725753127813</v>
+        <v>0.1420006032618283</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04704842129322968</v>
+        <v>0.04239793514505544</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>112</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1491146201.112983</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1985748190.933852</v>
+        <v>2363777151.561068</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1655482050205031</v>
+        <v>0.1436548982864335</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02335505641874663</v>
+        <v>0.02387042572914135</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>992874121.1170869</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1177348002.125894</v>
+        <v>1049471824.527838</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1838879153525537</v>
+        <v>0.1193291716698215</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03201744653337304</v>
+        <v>0.03565528552287102</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>588674050.8565416</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3013125025.784548</v>
+        <v>2440575048.943964</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1119118280145095</v>
+        <v>0.1115385956137164</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03185477817092272</v>
+        <v>0.02670055990132863</v>
       </c>
       <c r="H88" t="b">
         <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>118</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1506562544.628707</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2572907999.577003</v>
+        <v>2590962815.499282</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1298912323973115</v>
+        <v>0.1546767658903349</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02942068740196094</v>
+        <v>0.04115547522574076</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>102</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1286454069.195023</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1900939392.545938</v>
+        <v>1614179017.686774</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1243416995477919</v>
+        <v>0.1206963701089895</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0462226433732477</v>
+        <v>0.03505531270824412</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>950469748.421918</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1601592784.850099</v>
+        <v>1593927909.000386</v>
       </c>
       <c r="F91" t="n">
-        <v>0.141924574166984</v>
+        <v>0.1774726855790937</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04479271960317394</v>
+        <v>0.05297870225188729</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>800796417.8219113</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2303754249.129746</v>
+        <v>2043709631.157192</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08458164705268774</v>
+        <v>0.1038669224960206</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03716101503025823</v>
+        <v>0.0367967481362646</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>77</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1151877093.698966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5016679273.869434</v>
+        <v>4717392041.699992</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1322663688043294</v>
+        <v>0.1215024016702557</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03842101079806443</v>
+        <v>0.04534258002581672</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2508339571.828793</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2114630924.121536</v>
+        <v>1569647944.016554</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1594916817799533</v>
+        <v>0.1624093603805107</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02662213437215578</v>
+        <v>0.03774713319967907</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1057315475.308214</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2988644141.563827</v>
+        <v>3250796735.920503</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1266717642098467</v>
+        <v>0.08345094698819516</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04606178893139021</v>
+        <v>0.03790110810812299</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>72</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1494322071.344058</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1451687918.123801</v>
+        <v>1949169658.465018</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1158580412063555</v>
+        <v>0.09821515686454413</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03072821507406168</v>
+        <v>0.02995432154510121</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>725844004.5671221</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5047554402.330185</v>
+        <v>3542517950.350657</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1524770332286201</v>
+        <v>0.1305094268843418</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02148649896666209</v>
+        <v>0.02915155551878516</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>97</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2523777341.781225</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3000933502.534437</v>
+        <v>2494681951.44609</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09158524485786973</v>
+        <v>0.1026098550135329</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02302902619693106</v>
+        <v>0.02988863498368974</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>79</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1500466736.017479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2429820942.661424</v>
+        <v>3056980143.83303</v>
       </c>
       <c r="F99" t="n">
-        <v>0.116401812607376</v>
+        <v>0.09582995867147065</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02416535074100693</v>
+        <v>0.03090452244918805</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>94</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1214910416.021707</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4793293659.338738</v>
+        <v>3576300596.151139</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1446452198624697</v>
+        <v>0.1328747088149259</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02061438051797999</v>
+        <v>0.02510795170929809</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>92</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2396646963.690613</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2843630512.829954</v>
+        <v>2902963852.538989</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2190442655571945</v>
+        <v>0.1552282806051004</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04500124867028862</v>
+        <v>0.0409161843381565</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>118</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1421815324.813299</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_298.xlsx
+++ b/output/fit_clients/fit_round_298.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1785315718.038262</v>
+        <v>2400341661.188357</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08705973648764639</v>
+        <v>0.1047431014659508</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04381138995898811</v>
+        <v>0.04526508662582308</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2122742002.904635</v>
+        <v>2180762023.171448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1564167745696253</v>
+        <v>0.1743613338157679</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0306722491745047</v>
+        <v>0.04223303793719906</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4317387538.113158</v>
+        <v>3601885751.71352</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1358681525676452</v>
+        <v>0.1478662947377116</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03108106147247442</v>
+        <v>0.02556179249982457</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3579165692.8493</v>
+        <v>4208388747.93324</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09838575773356345</v>
+        <v>0.09550569454871059</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04763712470822822</v>
+        <v>0.04790043291338369</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1861020861.22259</v>
+        <v>2434911111.942037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1427055989370581</v>
+        <v>0.1088893750522649</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04150508166112032</v>
+        <v>0.05276977962999124</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2429519341.944317</v>
+        <v>2557712032.260409</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07574580504286549</v>
+        <v>0.07559228931413557</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04435648676784477</v>
+        <v>0.04513658609346521</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2766598359.920075</v>
+        <v>2766709522.034172</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1532770907574251</v>
+        <v>0.137086273682266</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0271429800771824</v>
+        <v>0.03293878367545157</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1810846780.586152</v>
+        <v>1744969329.905661</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1778777334644791</v>
+        <v>0.1950752666235738</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02412525846615978</v>
+        <v>0.0239287974230272</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5743076814.29073</v>
+        <v>5214077460.093688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1861617860344831</v>
+        <v>0.211585749450218</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05192345931100151</v>
+        <v>0.05468329413519006</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2664996175.447139</v>
+        <v>3708835337.693538</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1259549921022305</v>
+        <v>0.1164276119458956</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03440108011081557</v>
+        <v>0.04191179324781851</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2493399672.585806</v>
+        <v>3183386246.850874</v>
       </c>
       <c r="F12" t="n">
-        <v>0.172481238377865</v>
+        <v>0.1990489979935453</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03504384086873476</v>
+        <v>0.04322301083164076</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4392845671.807225</v>
+        <v>3852186335.006842</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06512393809342608</v>
+        <v>0.06588650429411387</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02228893558535964</v>
+        <v>0.02779995428112396</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3658951269.576483</v>
+        <v>2756334773.552188</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1288989395918446</v>
+        <v>0.1418461334215325</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03404085922710821</v>
+        <v>0.03847949138108755</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1374860842.033861</v>
+        <v>1575544687.231074</v>
       </c>
       <c r="F15" t="n">
-        <v>0.101537261392004</v>
+        <v>0.07191178986711487</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03367864678216439</v>
+        <v>0.04233706161093871</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1952436356.028931</v>
+        <v>2621781223.26301</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08777329038221926</v>
+        <v>0.1023281595173859</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03452763794414518</v>
+        <v>0.05111606572770704</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5191454767.681368</v>
+        <v>3360115124.800006</v>
       </c>
       <c r="F17" t="n">
-        <v>0.162728780413491</v>
+        <v>0.1264758152301448</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05154849178139732</v>
+        <v>0.03632746078927356</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3680637594.577675</v>
+        <v>2735582324.220082</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1254900672352296</v>
+        <v>0.1286220116212361</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02385683475636483</v>
+        <v>0.02537274922714151</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1304935900.564102</v>
+        <v>960252789.5145828</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1702348708638709</v>
+        <v>0.115303499866207</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02471796715351398</v>
+        <v>0.02686535100933871</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2452085910.308936</v>
+        <v>2071749976.139908</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1478133078227566</v>
+        <v>0.1588301047644887</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03037978038591101</v>
+        <v>0.03109725916313974</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2651420955.341897</v>
+        <v>2532389116.707012</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09799370556278322</v>
+        <v>0.0995626348795227</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03368681128160355</v>
+        <v>0.03652336608953728</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3380894227.166316</v>
+        <v>2476354963.52766</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1011480716063356</v>
+        <v>0.09273955410440768</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03789059904975415</v>
+        <v>0.04494635280151393</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1325520379.84294</v>
+        <v>1091185280.584092</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1581942683261257</v>
+        <v>0.1355624178329223</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04340957869887222</v>
+        <v>0.04114983575326418</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4000910494.701607</v>
+        <v>2958431186.701532</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1451066930187351</v>
+        <v>0.1051558173701195</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03744591010716482</v>
+        <v>0.02458506765019658</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1264561786.868105</v>
+        <v>935469385.0742562</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1184279561289109</v>
+        <v>0.1192225105562661</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02732977975436421</v>
+        <v>0.02022643502432152</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>965516094.7624595</v>
+        <v>1115286545.683573</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09126525949282745</v>
+        <v>0.09006495021565185</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03387867995183746</v>
+        <v>0.02500739629451871</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4407022413.671</v>
+        <v>2892355058.689785</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1009674219953477</v>
+        <v>0.1009815598085625</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02480510306116742</v>
+        <v>0.02518808767159609</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2770674395.818733</v>
+        <v>2481799750.972281</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1497090251198532</v>
+        <v>0.09614896402150407</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04845358084410706</v>
+        <v>0.04471281902207104</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4193246994.695236</v>
+        <v>4683763758.137893</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1101891974079399</v>
+        <v>0.1062626526442871</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02937767776421513</v>
+        <v>0.03521211100162088</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,16 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1874170306.951284</v>
+        <v>2198234019.35782</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1058777658451414</v>
+        <v>0.09936043931947906</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02466371097672278</v>
+        <v>0.02883796231068573</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>914443044.7441913</v>
+        <v>1278931770.429684</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1093320097216985</v>
+        <v>0.09584020046559906</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03576645791119809</v>
+        <v>0.0339113978680499</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1795304026.618865</v>
+        <v>1380044542.909457</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09482522997676449</v>
+        <v>0.1130768293297525</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03277621515798469</v>
+        <v>0.03870996280280618</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2011376908.682584</v>
+        <v>2040343372.201094</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1874937863458253</v>
+        <v>0.150962163862182</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05276991293662206</v>
+        <v>0.04790804011086475</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1323417949.570215</v>
+        <v>993291140.8652985</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1209276999650733</v>
+        <v>0.08488664610976478</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02337297473644551</v>
+        <v>0.02112316407553871</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>941908634.9250028</v>
+        <v>824495255.7085513</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08769488650875609</v>
+        <v>0.08613634380827345</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04518852899485083</v>
+        <v>0.03157645177115201</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2729250879.389655</v>
+        <v>2992379295.916359</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1167804412781504</v>
+        <v>0.1114155588459996</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02259010181337461</v>
+        <v>0.02198477318056449</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2928911723.08477</v>
+        <v>2848910462.713602</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1056416066831231</v>
+        <v>0.07623737934502242</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02814089374726278</v>
+        <v>0.04245841772242506</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1850794818.676544</v>
+        <v>1770879007.452731</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09377360135998507</v>
+        <v>0.09988115494569465</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02686734875942844</v>
+        <v>0.02974722444916415</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1824670164.611382</v>
+        <v>1479086350.408431</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1607919819249347</v>
+        <v>0.1242962701811494</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02359767923146849</v>
+        <v>0.02973580002142567</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1818571821.280972</v>
+        <v>1391129083.204286</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1469830590715778</v>
+        <v>0.1401485084102322</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04272229564002854</v>
+        <v>0.0465795013648628</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2876437518.430094</v>
+        <v>2748377011.190012</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1462405009646242</v>
+        <v>0.1422044921572298</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03489977847082185</v>
+        <v>0.04041250007986195</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4071123308.150652</v>
+        <v>3862042833.633525</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08384593793379783</v>
+        <v>0.09685754488729123</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03091945279378133</v>
+        <v>0.03804436528304438</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2792311522.415148</v>
+        <v>2125796803.243348</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1295458393550752</v>
+        <v>0.1870623520726683</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02556746522220306</v>
+        <v>0.02361568498543046</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2065193129.789653</v>
+        <v>2352754452.667068</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06599769094689201</v>
+        <v>0.09696086507626363</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03037976527525873</v>
+        <v>0.02370106729413592</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1709405495.129657</v>
+        <v>2310325499.502342</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1552915233910321</v>
+        <v>0.1318342375809771</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04783774868027361</v>
+        <v>0.04019843588796964</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5015092158.096976</v>
+        <v>5193272346.836459</v>
       </c>
       <c r="F46" t="n">
-        <v>0.134005265184841</v>
+        <v>0.1677784005196134</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04657572706681694</v>
+        <v>0.05739064890622279</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3198963972.450351</v>
+        <v>4492243728.471992</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1636424143302754</v>
+        <v>0.1830226866254303</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04381882807137386</v>
+        <v>0.05693231783222628</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4387484317.086096</v>
+        <v>3153541808.844582</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08577755607136285</v>
+        <v>0.07074619054902974</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03251186645680193</v>
+        <v>0.02803872955938287</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1782461678.607767</v>
+        <v>1952002612.685013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.134310786724467</v>
+        <v>0.1760162658470557</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03413775347088265</v>
+        <v>0.03178051924171525</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3787542275.566606</v>
+        <v>2719385852.131899</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1340522738559069</v>
+        <v>0.1426006425557965</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04255834982447806</v>
+        <v>0.0386502466897171</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1490513277.225052</v>
+        <v>1502361446.960011</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1501268452001143</v>
+        <v>0.1356209300305732</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04031742423039728</v>
+        <v>0.05168711089509906</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4983365187.319416</v>
+        <v>3780255457.057783</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1357588536374249</v>
+        <v>0.1169264710013712</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04741981196907645</v>
+        <v>0.05132262578262738</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3494067094.546219</v>
+        <v>3547713609.873693</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1864141422226145</v>
+        <v>0.128153185048191</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03000836262277094</v>
+        <v>0.03200997058177815</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4657755366.431468</v>
+        <v>4857980437.715251</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1641157324647678</v>
+        <v>0.1466962377853273</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03822957174965578</v>
+        <v>0.04761942065926975</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4790524193.114096</v>
+        <v>3895351379.495122</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1958662299592982</v>
+        <v>0.1870893333455956</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0223269014934327</v>
+        <v>0.03213495303063973</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1825588764.182401</v>
+        <v>1435906971.687975</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1586459427956931</v>
+        <v>0.1460001578554135</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0504664144277184</v>
+        <v>0.03873038858191998</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4466129377.642482</v>
+        <v>4569037379.083884</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1815189416544325</v>
+        <v>0.1843090905930261</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02109504104667644</v>
+        <v>0.02025075546523441</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1555344594.908203</v>
+        <v>1353047134.56614</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1564709188046644</v>
+        <v>0.1977394990478452</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03664178410473608</v>
+        <v>0.03878003381466344</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,22 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5196188592.358803</v>
+        <v>3416727598.340431</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08412035884774509</v>
+        <v>0.109489993497711</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04620465969392975</v>
+        <v>0.03668630520526384</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3166881136.764327</v>
+        <v>2566302478.684183</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1790834219655991</v>
+        <v>0.1332939291417537</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03221664201163121</v>
+        <v>0.02692376005714668</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2946503079.441248</v>
+        <v>3355727650.322865</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1382689075014945</v>
+        <v>0.1379017038112697</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02459465994343538</v>
+        <v>0.03077978843376487</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1881382423.529091</v>
+        <v>1702201154.034155</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1279340616378393</v>
+        <v>0.1838638069987465</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0327253709403788</v>
+        <v>0.04782151279821302</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3517191854.923544</v>
+        <v>3446807747.098358</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1045071945988024</v>
+        <v>0.06944908743817226</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02957282961463509</v>
+        <v>0.03045813703500959</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4975160722.145459</v>
+        <v>5106652261.817548</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1895474760746984</v>
+        <v>0.1837582552025191</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02637087121794732</v>
+        <v>0.03248792119410018</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,13 +2250,13 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4677385889.236233</v>
+        <v>3915502030.622577</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1250146540843667</v>
+        <v>0.1174181658894776</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02202455547243045</v>
+        <v>0.02618528341226048</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4282951538.373451</v>
+        <v>4341828036.129974</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1000157998723169</v>
+        <v>0.09913346627525169</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04950063756698329</v>
+        <v>0.03772194932353198</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3282447987.74235</v>
+        <v>2938490460.017935</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06436709390662425</v>
+        <v>0.06775322848150522</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04818267339217093</v>
+        <v>0.03677606004715318</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4888643766.078553</v>
+        <v>4173037762.941289</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1424484180452663</v>
+        <v>0.1356093633078672</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05126656757337932</v>
+        <v>0.03704735100575603</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2322446846.03147</v>
+        <v>1583219119.744115</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1557195454913551</v>
+        <v>0.140670502047126</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04955400617914515</v>
+        <v>0.03655323290050253</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3409326520.660478</v>
+        <v>2401161129.911602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0947155818732404</v>
+        <v>0.0915037153969961</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04056925244033548</v>
+        <v>0.04588881599457231</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5603470417.991254</v>
+        <v>4813771605.326364</v>
       </c>
       <c r="F71" t="n">
-        <v>0.144302194408588</v>
+        <v>0.1708018658140868</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02508135943425838</v>
+        <v>0.02915221349544257</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1833563112.035322</v>
+        <v>1625029595.887637</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07284390507390928</v>
+        <v>0.09053413758215445</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04078987071814802</v>
+        <v>0.04056324915570915</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3449370286.788061</v>
+        <v>2447756810.32885</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1031347207894447</v>
+        <v>0.07436400998971958</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03229020041534934</v>
+        <v>0.04283991325780669</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2680586049.535337</v>
+        <v>3427313804.031505</v>
       </c>
       <c r="F74" t="n">
-        <v>0.125555372338587</v>
+        <v>0.131416683235363</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03101578754889649</v>
+        <v>0.02286955933909143</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2290714620.070113</v>
+        <v>1506357309.017165</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1321496436020751</v>
+        <v>0.1251393491771891</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02577816128171343</v>
+        <v>0.02994758586198552</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5012965694.26309</v>
+        <v>4610958445.318355</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1136031002182665</v>
+        <v>0.0849668096334897</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03381091028143567</v>
+        <v>0.030067488124663</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2204702536.903739</v>
+        <v>1830199351.450504</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1673880642508215</v>
+        <v>0.141323872084023</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0286390558096473</v>
+        <v>0.01918373477672825</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3488067229.75438</v>
+        <v>4371094906.885095</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1316875422380704</v>
+        <v>0.1244983919557719</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04596999197076307</v>
+        <v>0.04896908887762943</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1273907224.197587</v>
+        <v>1261778875.824332</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1219698010355029</v>
+        <v>0.1613174078473093</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03461313923790288</v>
+        <v>0.03808878602536724</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4301795239.864389</v>
+        <v>4461716076.199929</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08076751335255949</v>
+        <v>0.07809977403670337</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03399209186405213</v>
+        <v>0.02527339919379714</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5029359467.046868</v>
+        <v>4607866584.539971</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1039794493503854</v>
+        <v>0.09429069178367853</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02210827242324456</v>
+        <v>0.02751643495136417</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,13 +2726,13 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5598683850.422307</v>
+        <v>5415021471.713288</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1557721276093086</v>
+        <v>0.2090116402094923</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02480398501957219</v>
+        <v>0.02269347202891703</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1761721303.833995</v>
+        <v>1765154562.856683</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1140367722584418</v>
+        <v>0.118608036067079</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03313520720243669</v>
+        <v>0.04533851703355141</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2541788172.416807</v>
+        <v>2084342532.96645</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09225527115590322</v>
+        <v>0.07666523882419637</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04667180066204037</v>
+        <v>0.04276211671554043</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2939591498.266954</v>
+        <v>2342336848.099258</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1420006032618283</v>
+        <v>0.1634552172309819</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04239793514505544</v>
+        <v>0.03703119759067263</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2363777151.561068</v>
+        <v>2246589258.060044</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1436548982864335</v>
+        <v>0.1657233835053873</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02387042572914135</v>
+        <v>0.02644025917675754</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1049471824.527838</v>
+        <v>1109062081.179483</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1193291716698215</v>
+        <v>0.1615785394599684</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03565528552287102</v>
+        <v>0.03158308399161935</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2440575048.943964</v>
+        <v>3224589314.428432</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1115385956137164</v>
+        <v>0.1199000640152542</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02670055990132863</v>
+        <v>0.03822558488823845</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2590962815.499282</v>
+        <v>2374289103.065809</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1546767658903349</v>
+        <v>0.1204027528771474</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04115547522574076</v>
+        <v>0.0303487497754235</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1614179017.686774</v>
+        <v>1626285048.610353</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1206963701089895</v>
+        <v>0.1263014547401455</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03505531270824412</v>
+        <v>0.04418751226592946</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1593927909.000386</v>
+        <v>1703283921.8404</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1774726855790937</v>
+        <v>0.195258455371032</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05297870225188729</v>
+        <v>0.04795675333530446</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2043709631.157192</v>
+        <v>2123203262.617208</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1038669224960206</v>
+        <v>0.09335259067543668</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0367967481362646</v>
+        <v>0.02957135482630647</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4717392041.699992</v>
+        <v>4038439640.448308</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1215024016702557</v>
+        <v>0.09801270190988474</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04534258002581672</v>
+        <v>0.05070897524095401</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1569647944.016554</v>
+        <v>1779321925.611169</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1624093603805107</v>
+        <v>0.1603223332381408</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03774713319967907</v>
+        <v>0.03236652508920434</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3250796735.920503</v>
+        <v>2885262325.95642</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08345094698819516</v>
+        <v>0.1130518951488629</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03790110810812299</v>
+        <v>0.05023538577527852</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1949169658.465018</v>
+        <v>1571219146.682816</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09821515686454413</v>
+        <v>0.09132032242168603</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02995432154510121</v>
+        <v>0.0391311014006458</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3542517950.350657</v>
+        <v>3863160316.532016</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1305094268843418</v>
+        <v>0.1110359549273569</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02915155551878516</v>
+        <v>0.02872973873911274</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2494681951.44609</v>
+        <v>3283689281.930662</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1026098550135329</v>
+        <v>0.08770525283908037</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02988863498368974</v>
+        <v>0.0262839001890488</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3056980143.83303</v>
+        <v>2226633679.394724</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09582995867147065</v>
+        <v>0.1009132355932145</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03090452244918805</v>
+        <v>0.02794697374158435</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3576300596.151139</v>
+        <v>3785113157.102199</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1328747088149259</v>
+        <v>0.1792556841362091</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02510795170929809</v>
+        <v>0.02241909418576684</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2902963852.538989</v>
+        <v>3319633076.102702</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1552282806051004</v>
+        <v>0.1710077398024824</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0409161843381565</v>
+        <v>0.05490899734583257</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_298.xlsx
+++ b/output/fit_clients/fit_round_298.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2400341661.188357</v>
+        <v>2439997148.341301</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1047431014659508</v>
+        <v>0.08663281127241378</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04526508662582308</v>
+        <v>0.0451261990151448</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2180762023.171448</v>
+        <v>1835598468.653901</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1743613338157679</v>
+        <v>0.1381174295292462</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04223303793719906</v>
+        <v>0.04527529396242544</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3601885751.71352</v>
+        <v>4707598078.39465</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1478662947377116</v>
+        <v>0.1412247813781577</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02556179249982457</v>
+        <v>0.03036997928663702</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>157</v>
+      </c>
+      <c r="J4" t="n">
+        <v>297</v>
+      </c>
+      <c r="K4" t="n">
+        <v>81.82439400324634</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4208388747.93324</v>
+        <v>4195039317.027313</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09550569454871059</v>
+        <v>0.07559247592187371</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04790043291338369</v>
+        <v>0.03357602677274005</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>122</v>
+      </c>
+      <c r="J5" t="n">
+        <v>298</v>
+      </c>
+      <c r="K5" t="n">
+        <v>100.0596231141529</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2434911111.942037</v>
+        <v>2035869789.72387</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1088893750522649</v>
+        <v>0.09522927356647483</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05276977962999124</v>
+        <v>0.04048462472143891</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2557712032.260409</v>
+        <v>2297527221.636042</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07559228931413557</v>
+        <v>0.07532574634591233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04513658609346521</v>
+        <v>0.04135446753887509</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +715,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2766709522.034172</v>
+        <v>3081564145.001359</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137086273682266</v>
+        <v>0.2160461356057673</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03293878367545157</v>
+        <v>0.02615450444641825</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>79</v>
+      </c>
+      <c r="J8" t="n">
+        <v>295</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1744969329.905661</v>
+        <v>1818228466.798286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1950752666235738</v>
+        <v>0.1387434895239178</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0239287974230272</v>
+        <v>0.02573538544610197</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5214077460.093688</v>
+        <v>4148979173.490688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.211585749450218</v>
+        <v>0.2035252423791929</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05468329413519006</v>
+        <v>0.04864699158601034</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>264</v>
+      </c>
+      <c r="J10" t="n">
+        <v>298</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3708835337.693538</v>
+        <v>3867779593.688863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1164276119458956</v>
+        <v>0.1484523707387816</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04191179324781851</v>
+        <v>0.0314047509383358</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>119</v>
+      </c>
+      <c r="J11" t="n">
+        <v>297</v>
+      </c>
+      <c r="K11" t="n">
+        <v>81.73276409444064</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3183386246.850874</v>
+        <v>2130504151.248037</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1990489979935453</v>
+        <v>0.1588728170294907</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04322301083164076</v>
+        <v>0.03510021064015819</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>296</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3852186335.006842</v>
+        <v>4855277045.917771</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06588650429411387</v>
+        <v>0.06927361196938867</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02779995428112396</v>
+        <v>0.019301832108061</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>152</v>
+      </c>
+      <c r="J13" t="n">
+        <v>298</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2756334773.552188</v>
+        <v>3452201489.37072</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1418461334215325</v>
+        <v>0.1520048321117749</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03847949138108755</v>
+        <v>0.03899938354701949</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62</v>
+      </c>
+      <c r="J14" t="n">
+        <v>298</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1575544687.231074</v>
+        <v>1781170820.64455</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07191178986711487</v>
+        <v>0.08677491107081488</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04233706161093871</v>
+        <v>0.03117534161056018</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2621781223.26301</v>
+        <v>2844612427.619613</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1023281595173859</v>
+        <v>0.0972980488837428</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05111606572770704</v>
+        <v>0.04722217682005151</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3360115124.800006</v>
+        <v>3281494412.629848</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1264758152301448</v>
+        <v>0.1496624275154903</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03632746078927356</v>
+        <v>0.03210539048499084</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>141</v>
+      </c>
+      <c r="J17" t="n">
+        <v>295</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2735582324.220082</v>
+        <v>3621908270.032444</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1286220116212361</v>
+        <v>0.1286822553942726</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02537274922714151</v>
+        <v>0.03325255177208829</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>298</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>960252789.5145828</v>
+        <v>918403276.8429711</v>
       </c>
       <c r="F19" t="n">
-        <v>0.115303499866207</v>
+        <v>0.1341697943873162</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02686535100933871</v>
+        <v>0.02271960708872473</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2071749976.139908</v>
+        <v>2017287165.014152</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1588301047644887</v>
+        <v>0.1517655902379282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03109725916313974</v>
+        <v>0.02719232705233731</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2532389116.707012</v>
+        <v>1758995741.862737</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0995626348795227</v>
+        <v>0.07494800658249111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03652336608953728</v>
+        <v>0.03281618223327867</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2476354963.52766</v>
+        <v>2852339097.532126</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09273955410440768</v>
+        <v>0.1029092684243119</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04494635280151393</v>
+        <v>0.0408713820909374</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>81</v>
+      </c>
+      <c r="J22" t="n">
+        <v>297</v>
+      </c>
+      <c r="K22" t="n">
+        <v>39.46665768547986</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1091185280.584092</v>
+        <v>1171364678.154532</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1355624178329223</v>
+        <v>0.132065815301694</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04114983575326418</v>
+        <v>0.04563518379098996</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2958431186.701532</v>
+        <v>3169963506.29492</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1051558173701195</v>
+        <v>0.1302274706391737</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02458506765019658</v>
+        <v>0.03210159711605614</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>292</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>935469385.0742562</v>
+        <v>1020494081.281576</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1192225105562661</v>
+        <v>0.08659875795990046</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02022643502432152</v>
+        <v>0.0280504438424265</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1115286545.683573</v>
+        <v>1108299926.759757</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09006495021565185</v>
+        <v>0.09827695496229284</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02500739629451871</v>
+        <v>0.03547711621554517</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2892355058.689785</v>
+        <v>4075881370.627365</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1009815598085625</v>
+        <v>0.1283854510968454</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02518808767159609</v>
+        <v>0.01699208669841863</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>123</v>
+      </c>
+      <c r="J27" t="n">
+        <v>297</v>
+      </c>
+      <c r="K27" t="n">
+        <v>74.57228989459462</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2481799750.972281</v>
+        <v>3415335743.732017</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09614896402150407</v>
+        <v>0.1192368735741179</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04471281902207104</v>
+        <v>0.03917089268554627</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>62</v>
+      </c>
+      <c r="J28" t="n">
+        <v>293</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4683763758.137893</v>
+        <v>4806202011.109404</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1062626526442871</v>
+        <v>0.102939534134876</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03521211100162088</v>
+        <v>0.02971994329760758</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>281</v>
+      </c>
+      <c r="J29" t="n">
+        <v>298</v>
+      </c>
+      <c r="K29" t="n">
+        <v>84.35125767167796</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2198234019.35782</v>
+        <v>2099576017.967024</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09936043931947906</v>
+        <v>0.1364701719856782</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02883796231068573</v>
+        <v>0.03801763410561591</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1278931770.429684</v>
+        <v>1349390092.522231</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09584020046559906</v>
+        <v>0.07177440123678314</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0339113978680499</v>
+        <v>0.03467448930371586</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1380044542.909457</v>
+        <v>1772270733.680573</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1130768293297525</v>
+        <v>0.1034880009925099</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03870996280280618</v>
+        <v>0.03798629525898731</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2040343372.201094</v>
+        <v>2004844932.914393</v>
       </c>
       <c r="F33" t="n">
-        <v>0.150962163862182</v>
+        <v>0.2076798291409144</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04790804011086475</v>
+        <v>0.04057236214166732</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>993291140.8652985</v>
+        <v>1423284755.652123</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08488664610976478</v>
+        <v>0.08684428177333815</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02112316407553871</v>
+        <v>0.01867254239630724</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>824495255.7085513</v>
+        <v>1245508405.903346</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08613634380827345</v>
+        <v>0.08821268089623717</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03157645177115201</v>
+        <v>0.04061837359176218</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2992379295.916359</v>
+        <v>3223934008.213627</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1114155588459996</v>
+        <v>0.1346530168315559</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02198477318056449</v>
+        <v>0.02241290944622245</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2848910462.713602</v>
+        <v>2534199942.716368</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07623737934502242</v>
+        <v>0.08784758915954381</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04245841772242506</v>
+        <v>0.03243116299335407</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1770879007.452731</v>
+        <v>2066123407.382405</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09988115494569465</v>
+        <v>0.0740923538467743</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02974722444916415</v>
+        <v>0.03713054468270257</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1479086350.408431</v>
+        <v>2022645754.510942</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1242962701811494</v>
+        <v>0.156855834402874</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02973580002142567</v>
+        <v>0.02858184316356254</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1391129083.204286</v>
+        <v>1189516532.887277</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1401485084102322</v>
+        <v>0.1044271696721071</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0465795013648628</v>
+        <v>0.03650721049242217</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2748377011.190012</v>
+        <v>1799520565.119184</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1422044921572298</v>
+        <v>0.1301970172928885</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04041250007986195</v>
+        <v>0.04176634396595555</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3862042833.633525</v>
+        <v>2846397113.528821</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09685754488729123</v>
+        <v>0.08777775315525987</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03804436528304438</v>
+        <v>0.03176604714129488</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>123</v>
+      </c>
+      <c r="J42" t="n">
+        <v>297</v>
+      </c>
+      <c r="K42" t="n">
+        <v>44.98117989379606</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2125796803.243348</v>
+        <v>2534109584.875673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1870623520726683</v>
+        <v>0.1699359523452083</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02361568498543046</v>
+        <v>0.0209615596215014</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2352754452.667068</v>
+        <v>1858249839.320915</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09696086507626363</v>
+        <v>0.06476454683481883</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02370106729413592</v>
+        <v>0.03019748023417226</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2310325499.502342</v>
+        <v>2279508929.098765</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1318342375809771</v>
+        <v>0.152912650633569</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04019843588796964</v>
+        <v>0.03509263296126695</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5193272346.836459</v>
+        <v>5158816348.735321</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1677784005196134</v>
+        <v>0.1628543657278104</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05739064890622279</v>
+        <v>0.05446868389173367</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>177</v>
+      </c>
+      <c r="J46" t="n">
+        <v>298</v>
+      </c>
+      <c r="K46" t="n">
+        <v>84.54294168361122</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4492243728.471992</v>
+        <v>3210595532.758068</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1830226866254303</v>
+        <v>0.1708905698511873</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05693231783222628</v>
+        <v>0.03722093259301065</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>133</v>
+      </c>
+      <c r="J47" t="n">
+        <v>297</v>
+      </c>
+      <c r="K47" t="n">
+        <v>41.74982830262886</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2123,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3153541808.844582</v>
+        <v>2956045840.203152</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07074619054902974</v>
+        <v>0.069820235387982</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02803872955938287</v>
+        <v>0.02895294698359007</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>149</v>
+      </c>
+      <c r="J48" t="n">
+        <v>297</v>
+      </c>
+      <c r="K48" t="n">
+        <v>44.51574134227373</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2166,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1952002612.685013</v>
+        <v>1352200786.432786</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1760162658470557</v>
+        <v>0.1332523957894687</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03178051924171525</v>
+        <v>0.04023667936594638</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2195,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2719385852.131899</v>
+        <v>3464348235.407005</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1426006425557965</v>
+        <v>0.1333405440093941</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0386502466897171</v>
+        <v>0.0357078943375593</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>94</v>
+      </c>
+      <c r="J50" t="n">
+        <v>298</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2236,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1502361446.960011</v>
+        <v>1013047111.904071</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1356209300305732</v>
+        <v>0.1765361530286148</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05168711089509906</v>
+        <v>0.03717393888490483</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2271,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3780255457.057783</v>
+        <v>3691431225.917428</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1169264710013712</v>
+        <v>0.1151320937664673</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05132262578262738</v>
+        <v>0.04089157077134469</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>183</v>
+      </c>
+      <c r="J52" t="n">
+        <v>298</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2300,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3547713609.873693</v>
+        <v>2648547091.701717</v>
       </c>
       <c r="F53" t="n">
-        <v>0.128153185048191</v>
+        <v>0.1562977052378711</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03200997058177815</v>
+        <v>0.03452213476843518</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>41</v>
+      </c>
+      <c r="J53" t="n">
+        <v>293</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2335,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4857980437.715251</v>
+        <v>3822484723.602931</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1466962377853273</v>
+        <v>0.1271143198525722</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04761942065926975</v>
+        <v>0.03789842101571401</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>157</v>
+      </c>
+      <c r="J54" t="n">
+        <v>298</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3895351379.495122</v>
+        <v>3152355137.15348</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1870893333455956</v>
+        <v>0.1678457906273039</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03213495303063973</v>
+        <v>0.02031757865152427</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>136</v>
+      </c>
+      <c r="J55" t="n">
+        <v>296</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1435906971.687975</v>
+        <v>1415643625.154572</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1460001578554135</v>
+        <v>0.1151287179126471</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03873038858191998</v>
+        <v>0.03729171412681697</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4569037379.083884</v>
+        <v>4047555250.213909</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1843090905930261</v>
+        <v>0.1184422390084327</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02025075546523441</v>
+        <v>0.02648537137062198</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>121</v>
+      </c>
+      <c r="J57" t="n">
+        <v>298</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1353047134.56614</v>
+        <v>1571296065.239597</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1977394990478452</v>
+        <v>0.1904635837430562</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03878003381466344</v>
+        <v>0.03762162456661228</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3416727598.340431</v>
+        <v>3953318326.688333</v>
       </c>
       <c r="F59" t="n">
-        <v>0.109489993497711</v>
+        <v>0.0951341882136538</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03668630520526384</v>
+        <v>0.03372808088144214</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>144</v>
+      </c>
+      <c r="J59" t="n">
+        <v>297</v>
+      </c>
+      <c r="K59" t="n">
+        <v>70.72048273954753</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2566302478.684183</v>
+        <v>2517336525.344801</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1332939291417537</v>
+        <v>0.2066176503599218</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02692376005714668</v>
+        <v>0.03103473255795033</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3355727650.322865</v>
+        <v>2930635540.832663</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1379017038112697</v>
+        <v>0.1605403890496398</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03077978843376487</v>
+        <v>0.03083969572963443</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1702201154.034155</v>
+        <v>1964658261.932493</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1838638069987465</v>
+        <v>0.1694308011351138</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04782151279821302</v>
+        <v>0.044661243433865</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2658,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3446807747.098358</v>
+        <v>4521567788.638361</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06944908743817226</v>
+        <v>0.07582486552210611</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03045813703500959</v>
+        <v>0.04417221852892961</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>145</v>
+      </c>
+      <c r="J63" t="n">
+        <v>297</v>
+      </c>
+      <c r="K63" t="n">
+        <v>79.70048547616135</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5106652261.817548</v>
+        <v>4630749049.91223</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1837582552025191</v>
+        <v>0.174393151799809</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03248792119410018</v>
+        <v>0.0281871132966864</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>146</v>
+      </c>
+      <c r="J64" t="n">
+        <v>298</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,23 +2724,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3915502030.622577</v>
+        <v>5838727500.662284</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1174181658894776</v>
+        <v>0.1467906153845168</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02618528341226048</v>
+        <v>0.01968866932160261</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>237</v>
+      </c>
+      <c r="J65" t="n">
+        <v>298</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4341828036.129974</v>
+        <v>4076467677.01638</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09913346627525169</v>
+        <v>0.151465233790165</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03772194932353198</v>
+        <v>0.03601479016108958</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>147</v>
+      </c>
+      <c r="J66" t="n">
+        <v>297</v>
+      </c>
+      <c r="K66" t="n">
+        <v>72.96947565699735</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2938490460.017935</v>
+        <v>2250512742.86367</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06775322848150522</v>
+        <v>0.1004513036512882</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03677606004715318</v>
+        <v>0.03161817642021824</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>9</v>
+      </c>
+      <c r="J67" t="n">
+        <v>296</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4173037762.941289</v>
+        <v>5000196481.285954</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1356093633078672</v>
+        <v>0.09759613295023419</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03704735100575603</v>
+        <v>0.03518024018908251</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>158</v>
+      </c>
+      <c r="J68" t="n">
+        <v>297</v>
+      </c>
+      <c r="K68" t="n">
+        <v>84.06047061525938</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1583219119.744115</v>
+        <v>1860580487.473751</v>
       </c>
       <c r="F69" t="n">
-        <v>0.140670502047126</v>
+        <v>0.154005794702565</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03655323290050253</v>
+        <v>0.03855620538955087</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2401161129.911602</v>
+        <v>2529892644.966451</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0915037153969961</v>
+        <v>0.09717414127987042</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04588881599457231</v>
+        <v>0.03229381642007709</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>44</v>
+      </c>
+      <c r="J70" t="n">
+        <v>296</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4813771605.326364</v>
+        <v>4795218170.163317</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1708018658140868</v>
+        <v>0.1713804886381764</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02915221349544257</v>
+        <v>0.03205884081706319</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>223</v>
+      </c>
+      <c r="J71" t="n">
+        <v>297</v>
+      </c>
+      <c r="K71" t="n">
+        <v>84.05380117271567</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1625029595.887637</v>
+        <v>1859757951.536349</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09053413758215445</v>
+        <v>0.1085983099324178</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04056324915570915</v>
+        <v>0.04002547224982744</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2447756810.32885</v>
+        <v>2178439329.166663</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07436400998971958</v>
+        <v>0.1023958670652272</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04283991325780669</v>
+        <v>0.03450038309550327</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>20</v>
+      </c>
+      <c r="J73" t="n">
+        <v>295</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3427313804.031505</v>
+        <v>3509871083.400344</v>
       </c>
       <c r="F74" t="n">
-        <v>0.131416683235363</v>
+        <v>0.1462347519953965</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02286955933909143</v>
+        <v>0.02171289536384582</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>80</v>
+      </c>
+      <c r="J74" t="n">
+        <v>298</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1506357309.017165</v>
+        <v>2056573465.036356</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1251393491771891</v>
+        <v>0.1642425321576008</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02994758586198552</v>
+        <v>0.02939593743840384</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4610958445.318355</v>
+        <v>4190657920.755326</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0849668096334897</v>
+        <v>0.1057287765756244</v>
       </c>
       <c r="G76" t="n">
-        <v>0.030067488124663</v>
+        <v>0.02756889890104418</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>140</v>
+      </c>
+      <c r="J76" t="n">
+        <v>297</v>
+      </c>
+      <c r="K76" t="n">
+        <v>77.82308880816178</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1830199351.450504</v>
+        <v>1457969460.390101</v>
       </c>
       <c r="F77" t="n">
-        <v>0.141323872084023</v>
+        <v>0.1386794980286665</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01918373477672825</v>
+        <v>0.02833410455361549</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4371094906.885095</v>
+        <v>3631616486.836156</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1244983919557719</v>
+        <v>0.11067417025525</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04896908887762943</v>
+        <v>0.04979435973004223</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>148</v>
+      </c>
+      <c r="J78" t="n">
+        <v>298</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1261778875.824332</v>
+        <v>1284867542.420327</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1613174078473093</v>
+        <v>0.1433712744879732</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03808878602536724</v>
+        <v>0.02982789670956884</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3257,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4461716076.199929</v>
+        <v>3913003774.900132</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07809977403670337</v>
+        <v>0.07112571224417824</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02527339919379714</v>
+        <v>0.02334883071518401</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>145</v>
+      </c>
+      <c r="J80" t="n">
+        <v>298</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3298,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4607866584.539971</v>
+        <v>4973783193.191432</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09429069178367853</v>
+        <v>0.09297217182829337</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02751643495136417</v>
+        <v>0.02937531705996083</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>137</v>
+      </c>
+      <c r="J81" t="n">
+        <v>297</v>
+      </c>
+      <c r="K81" t="n">
+        <v>74.72025956412368</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5415021471.713288</v>
+        <v>5355558440.447087</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2090116402094923</v>
+        <v>0.1843148247614753</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02269347202891703</v>
+        <v>0.01998156397040484</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>218</v>
+      </c>
+      <c r="J82" t="n">
+        <v>298</v>
+      </c>
+      <c r="K82" t="n">
+        <v>85.13620058502713</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1765154562.856683</v>
+        <v>1826432269.526809</v>
       </c>
       <c r="F83" t="n">
-        <v>0.118608036067079</v>
+        <v>0.1053245490279457</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04533851703355141</v>
+        <v>0.02901659657873581</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2084342532.96645</v>
+        <v>2167179347.338943</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07666523882419637</v>
+        <v>0.08107649802849927</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04276211671554043</v>
+        <v>0.03150256162293777</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2342336848.099258</v>
+        <v>3671844416.234395</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1634552172309819</v>
+        <v>0.1157132263111173</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03703119759067263</v>
+        <v>0.04430862763079055</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>298</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2246589258.060044</v>
+        <v>1713516935.686622</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1657233835053873</v>
+        <v>0.110598347776093</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02644025917675754</v>
+        <v>0.01809962049729476</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1109062081.179483</v>
+        <v>1325832694.746538</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1615785394599684</v>
+        <v>0.1278012971576421</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03158308399161935</v>
+        <v>0.03891721963174646</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3224589314.428432</v>
+        <v>2594393384.901927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1199000640152542</v>
+        <v>0.1196971130246232</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03822558488823845</v>
+        <v>0.03203118702179025</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>42</v>
+      </c>
+      <c r="J88" t="n">
+        <v>296</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2374289103.065809</v>
+        <v>3414973735.420206</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1204027528771474</v>
+        <v>0.106771633787024</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0303487497754235</v>
+        <v>0.02750202242374467</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>295</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1626285048.610353</v>
+        <v>2141379769.828564</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1263014547401455</v>
+        <v>0.1037493284844484</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04418751226592946</v>
+        <v>0.04641620633488981</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1703283921.8404</v>
+        <v>1599003167.71145</v>
       </c>
       <c r="F91" t="n">
-        <v>0.195258455371032</v>
+        <v>0.1579489282522034</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04795675333530446</v>
+        <v>0.05444328667449987</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2123203262.617208</v>
+        <v>2188466223.917501</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09335259067543668</v>
+        <v>0.0849228526627718</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02957135482630647</v>
+        <v>0.04295746417602085</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4038439640.448308</v>
+        <v>3594511968.946077</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09801270190988474</v>
+        <v>0.1027737394985872</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05070897524095401</v>
+        <v>0.04339419830146281</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>132</v>
+      </c>
+      <c r="J93" t="n">
+        <v>298</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1779321925.611169</v>
+        <v>1675621573.984583</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1603223332381408</v>
+        <v>0.1181520533382563</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03236652508920434</v>
+        <v>0.03708311394772092</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2885262325.95642</v>
+        <v>2191318492.950744</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1130518951488629</v>
+        <v>0.1001822556688458</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05023538577527852</v>
+        <v>0.04178451080398215</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1571219146.682816</v>
+        <v>1699166998.2332</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09132032242168603</v>
+        <v>0.1095900190397483</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0391311014006458</v>
+        <v>0.03189090121132039</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3863160316.532016</v>
+        <v>5119989042.74616</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1110359549273569</v>
+        <v>0.1321106954843752</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02872973873911274</v>
+        <v>0.02243260928642662</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>148</v>
+      </c>
+      <c r="J97" t="n">
+        <v>298</v>
+      </c>
+      <c r="K97" t="n">
+        <v>86.32174326036568</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3283689281.930662</v>
+        <v>2513985743.913046</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08770525283908037</v>
+        <v>0.1157655151636374</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0262839001890488</v>
+        <v>0.02891576005518042</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>73</v>
+      </c>
+      <c r="J98" t="n">
+        <v>296</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2226633679.394724</v>
+        <v>3027654417.828568</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1009132355932145</v>
+        <v>0.1393324855913607</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02794697374158435</v>
+        <v>0.03556510467008334</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3785113157.102199</v>
+        <v>2965050987.729822</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1792556841362091</v>
+        <v>0.1215202200203689</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02241909418576684</v>
+        <v>0.02046372803483385</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>129</v>
+      </c>
+      <c r="J100" t="n">
+        <v>297</v>
+      </c>
+      <c r="K100" t="n">
+        <v>42.32540997476217</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3319633076.102702</v>
+        <v>2851452426.357367</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1710077398024824</v>
+        <v>0.204665172206206</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05490899734583257</v>
+        <v>0.05575490855950374</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
